--- a/wash_P/USA.xlsx
+++ b/wash_P/USA.xlsx
@@ -12852,7 +12852,7 @@
         <v>0</v>
       </c>
       <c r="LG4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LH4" t="n">
         <v>0</v>
@@ -14154,7 +14154,7 @@
         <v>0</v>
       </c>
       <c r="ABY4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ABZ4" t="n">
         <v>0</v>
@@ -14169,7 +14169,7 @@
         <v>0</v>
       </c>
       <c r="ACD4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACE4" t="n">
         <v>0</v>
@@ -14199,13 +14199,13 @@
         <v>0</v>
       </c>
       <c r="ACN4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACO4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACP4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACQ4" t="n">
         <v>0</v>
@@ -15353,13 +15353,13 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG5" t="n">
         <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI5" t="n">
         <v>0</v>
@@ -15398,10 +15398,10 @@
         <v>0</v>
       </c>
       <c r="DU5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DW5" t="n">
         <v>0</v>
@@ -15410,7 +15410,7 @@
         <v>0</v>
       </c>
       <c r="DY5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ5" t="n">
         <v>0</v>
@@ -18493,7 +18493,7 @@
         <v>0</v>
       </c>
       <c r="DJ6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK6" t="n">
         <v>0</v>
@@ -18526,10 +18526,10 @@
         <v>0</v>
       </c>
       <c r="DU6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DV6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DW6" t="n">
         <v>0</v>
@@ -18538,7 +18538,7 @@
         <v>0</v>
       </c>
       <c r="DY6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
         <v>0</v>
@@ -20152,7 +20152,7 @@
         <v>0</v>
       </c>
       <c r="YQ6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="YR6" t="n">
         <v>0</v>
@@ -20179,7 +20179,7 @@
         <v>0</v>
       </c>
       <c r="YZ6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZA6" t="n">
         <v>0</v>
@@ -20188,7 +20188,7 @@
         <v>0</v>
       </c>
       <c r="ZC6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZD6" t="n">
         <v>0</v>
@@ -20212,7 +20212,7 @@
         <v>0</v>
       </c>
       <c r="ZK6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZL6" t="n">
         <v>0</v>
@@ -23322,7 +23322,7 @@
         <v>0</v>
       </c>
       <c r="ZE7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZF7" t="n">
         <v>0</v>
@@ -24327,7 +24327,7 @@
         <v>0</v>
       </c>
       <c r="AMB7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AMC7" t="n">
         <v>0</v>
@@ -28438,7 +28438,7 @@
         <v>0</v>
       </c>
       <c r="KO9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KP9" t="n">
         <v>0</v>
@@ -30858,7 +30858,7 @@
         <v>0</v>
       </c>
       <c r="BM10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN10" t="n">
         <v>0</v>
@@ -31404,7 +31404,7 @@
         <v>0</v>
       </c>
       <c r="IM10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IN10" t="n">
         <v>0</v>
@@ -35540,7 +35540,7 @@
         <v>0</v>
       </c>
       <c r="VK11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="VL11" t="n">
         <v>0</v>
@@ -35678,7 +35678,7 @@
         <v>0</v>
       </c>
       <c r="XE11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XF11" t="n">
         <v>0</v>
@@ -40581,7 +40581,7 @@
         <v>0</v>
       </c>
       <c r="FV13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FW13" t="n">
         <v>0</v>
@@ -56611,7 +56611,7 @@
         <v>0</v>
       </c>
       <c r="KV18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KW18" t="n">
         <v>0</v>
@@ -71819,7 +71819,7 @@
         <v>0</v>
       </c>
       <c r="FH23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI23" t="n">
         <v>0</v>
@@ -74581,10 +74581,10 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR24" t="n">
         <v>0</v>
@@ -74749,7 +74749,7 @@
         <v>0</v>
       </c>
       <c r="CT24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU24" t="n">
         <v>0</v>
@@ -74902,7 +74902,7 @@
         <v>0</v>
       </c>
       <c r="ES24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ET24" t="n">
         <v>0</v>
@@ -76357,7 +76357,7 @@
         <v>0</v>
       </c>
       <c r="XJ24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XK24" t="n">
         <v>0</v>
@@ -78030,7 +78030,7 @@
         <v>0</v>
       </c>
       <c r="ES25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ET25" t="n">
         <v>0</v>
@@ -79914,7 +79914,7 @@
         <v>0</v>
       </c>
       <c r="ACW25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACX25" t="n">
         <v>0</v>
@@ -81158,7 +81158,7 @@
         <v>0</v>
       </c>
       <c r="ES26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ET26" t="n">
         <v>0</v>
@@ -84286,7 +84286,7 @@
         <v>0</v>
       </c>
       <c r="ES27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ET27" t="n">
         <v>0</v>
@@ -87414,7 +87414,7 @@
         <v>0</v>
       </c>
       <c r="ES28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ET28" t="n">
         <v>0</v>
@@ -89304,7 +89304,7 @@
         <v>0</v>
       </c>
       <c r="ACY28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACZ28" t="n">
         <v>0</v>
@@ -90437,7 +90437,7 @@
         <v>0</v>
       </c>
       <c r="DJ29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK29" t="n">
         <v>0</v>
@@ -92432,7 +92432,7 @@
         <v>0</v>
       </c>
       <c r="ACY29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACZ29" t="n">
         <v>0</v>
@@ -92573,7 +92573,7 @@
         <v>0</v>
       </c>
       <c r="AET29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AEU29" t="n">
         <v>0</v>
